--- a/data/trans_orig/P14A32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234B1479-F8B6-495A-9055-3792A7556608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE2519C-0EAA-4040-9C58-0E95013A3EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD941A99-0C81-4855-BFEE-8FC56B3D93FE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E778F0A-758F-4F7A-9191-703B266F7304}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>47,51%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -129,10 +129,10 @@
     <t>52,49%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -153,19 +153,19 @@
     <t>55,98%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -174,19 +174,19 @@
     <t>44,02%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -198,19 +198,19 @@
     <t>29,28%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
   </si>
   <si>
     <t>50,61%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -219,19 +219,19 @@
     <t>70,72%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -246,7 +246,7 @@
     <t>34,01%</t>
   </si>
   <si>
-    <t>83,58%</t>
+    <t>83,94%</t>
   </si>
   <si>
     <t>59,83%</t>
@@ -258,7 +258,7 @@
     <t>65,99%</t>
   </si>
   <si>
-    <t>16,42%</t>
+    <t>16,06%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -267,7 +267,7 @@
     <t>27,86%</t>
   </si>
   <si>
-    <t>65,22%</t>
+    <t>65,29%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -276,13 +276,13 @@
     <t>16,88%</t>
   </si>
   <si>
-    <t>51,63%</t>
+    <t>46,65%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>34,78%</t>
+    <t>34,71%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -291,7 +291,7 @@
     <t>83,12%</t>
   </si>
   <si>
-    <t>48,37%</t>
+    <t>53,35%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -336,55 +336,55 @@
     <t>60,95%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -405,10 +405,10 @@
     <t>62,99%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>72,42%</t>
@@ -423,10 +423,10 @@
     <t>37,01%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>66,89%</t>
@@ -462,37 +462,37 @@
     <t>57,99%</t>
   </si>
   <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>42,01%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
   </si>
   <si>
     <t>80,52%</t>
@@ -573,7 +573,7 @@
     <t>27,34%</t>
   </si>
   <si>
-    <t>70,41%</t>
+    <t>73,93%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -582,55 +582,55 @@
     <t>72,66%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0370B469-73FB-44FC-9021-B79387F5C868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9F230-34EA-4A99-B282-F7B65CFA047A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2549,7 +2549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE21860-83A5-400F-AC8B-0187B7FF44F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C03D8-5334-4797-9E2D-4BBEBE135081}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A32-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE2519C-0EAA-4040-9C58-0E95013A3EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B9BF20B-19DE-4D7E-A499-CA04B3BA4471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E778F0A-758F-4F7A-9191-703B266F7304}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{714BBA6A-470E-4F77-BCA5-4AD27BD23990}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,19 +93,19 @@
     <t>43,24%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -120,19 +120,19 @@
     <t>56,76%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>52,49%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -153,19 +153,19 @@
     <t>55,98%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -174,19 +174,19 @@
     <t>44,02%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -198,19 +198,19 @@
     <t>29,28%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
   </si>
   <si>
     <t>50,61%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -219,19 +219,19 @@
     <t>70,72%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -240,25 +240,25 @@
     <t>40,17%</t>
   </si>
   <si>
-    <t>81,23%</t>
+    <t>81,01%</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>83,94%</t>
+    <t>83,26%</t>
   </si>
   <si>
     <t>59,83%</t>
   </si>
   <si>
-    <t>18,77%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>65,99%</t>
   </si>
   <si>
-    <t>16,06%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -267,7 +267,7 @@
     <t>27,86%</t>
   </si>
   <si>
-    <t>65,29%</t>
+    <t>64,31%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -276,13 +276,13 @@
     <t>16,88%</t>
   </si>
   <si>
-    <t>46,65%</t>
+    <t>48,74%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>34,71%</t>
+    <t>35,69%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -291,7 +291,7 @@
     <t>83,12%</t>
   </si>
   <si>
-    <t>53,35%</t>
+    <t>51,26%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -300,135 +300,135 @@
     <t>37,49%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2016 (Tasa respuesta: 0,96%)</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por incontinencia urinaria en 2015 (Tasa respuesta: 0,96%)</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
     <t>66,89%</t>
   </si>
   <si>
@@ -438,10 +438,10 @@
     <t>57,73%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>33,11%</t>
@@ -453,52 +453,52 @@
     <t>42,27%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>42,01%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>30,69%</t>
+    <t>39,38%</t>
   </si>
   <si>
     <t>72,41%</t>
@@ -507,13 +507,13 @@
     <t>76,86%</t>
   </si>
   <si>
-    <t>38,49%</t>
+    <t>35,87%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>69,31%</t>
+    <t>60,62%</t>
   </si>
   <si>
     <t>27,59%</t>
@@ -522,7 +522,7 @@
     <t>23,14%</t>
   </si>
   <si>
-    <t>61,51%</t>
+    <t>64,13%</t>
   </si>
   <si>
     <t>49,51%</t>
@@ -531,106 +531,106 @@
     <t>34,41%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>16,84%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>67,87%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9F230-34EA-4A99-B282-F7B65CFA047A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BB79E6-FEE6-4A22-8949-D0933E2DA972}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2549,7 +2549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874C03D8-5334-4797-9E2D-4BBEBE135081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ABE0B0-2A72-4199-8217-129B7383197E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
